--- a/Week 5/profits.xlsx
+++ b/Week 5/profits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\GitHub\jukevote\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817F6E2-0245-4B71-8F3D-6F9CFAF0F291}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7787F382-924C-4E71-9359-482060CB63FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5768B30F-6220-471E-850D-E341E9DEE88C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{5768B30F-6220-471E-850D-E341E9DEE88C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1600" baseline="0"/>
@@ -170,7 +170,7 @@
                   <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>10,714€</a:t>
+              <a:t>4,563€</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -438,7 +438,7 @@
                 <c:formatCode>"€"#,##0_);[Red]\("€"#,##0\)</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;€&quot;#,##0.00_);[Red]\(&quot;€&quot;#,##0.00\)">
-                  <c:v>30514.18</c:v>
+                  <c:v>24363</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19800</c:v>
@@ -673,7 +673,7 @@
                   <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>15,726</a:t>
+              <a:t>21,878</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0">
@@ -1054,7 +1054,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" baseline="0"/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1600" b="0" i="0" baseline="0">
@@ -1069,7 +1069,7 @@
                 </a:solidFill>
                 <a:effectLst/>
               </a:rPr>
-              <a:t>80,903€</a:t>
+              <a:t>87,055€</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES" sz="1600" baseline="0">
               <a:solidFill>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE31485-FE21-464A-9240-F7E3573AEBF1}">
   <dimension ref="B2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3490,18 +3490,18 @@
         <v>2000</v>
       </c>
       <c r="E4" s="1">
-        <v>30514.18</v>
+        <v>24363</v>
       </c>
       <c r="F4" s="2">
         <v>19800</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f>F4-E4</f>
-        <v>-10714.18</v>
+        <v>-4563</v>
       </c>
       <c r="H4">
         <f>G4</f>
-        <v>-10714.18</v>
+        <v>-4563</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="H5">
         <f>G5+H4</f>
-        <v>15726.82</v>
+        <v>21878</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
@@ -3545,7 +3545,7 @@
       </c>
       <c r="H6">
         <f>G6+H5</f>
-        <v>80903.820000000007</v>
+        <v>87055</v>
       </c>
     </row>
   </sheetData>
